--- a/public/karyawan.xlsx
+++ b/public/karyawan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warehouse-imss\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70E2EF-1DC6-432E-A3B0-DAE50D72B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7EFF97-B4A2-48A6-AE10-C3752815F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E7701AF-EAB5-43C6-BB24-06A5F64E98C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>No</t>
   </si>
@@ -390,9 +390,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>ACHMAD IRFAN</t>
-  </si>
-  <si>
     <t>Jatibarang</t>
   </si>
   <si>
@@ -439,6 +436,12 @@
   </si>
   <si>
     <t xml:space="preserve">SMK </t>
+  </si>
+  <si>
+    <t>ACHMAD IRFAN S</t>
+  </si>
+  <si>
+    <t>Ncip adike alex</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
   <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2072,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2">
         <v>641907245</v>
@@ -2079,10 +2082,10 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="H4" s="4">
         <v>43647</v>
@@ -2109,13 +2112,13 @@
         <v>79</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>106</v>
@@ -2131,7 +2134,7 @@
         <v>87</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z4" s="4">
         <v>35816</v>
@@ -2140,26 +2143,26 @@
         <v>25</v>
       </c>
       <c r="AB4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AD4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="AH4" s="8">
         <v>19047644034</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU4" s="8">
         <v>0</v>
@@ -2186,22 +2189,22 @@
         <v>116</v>
       </c>
       <c r="AX4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="AZ4" s="1">
         <v>2016</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BB4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="BD4" s="1">
         <v>2016</v>
@@ -2242,41 +2245,102 @@
       </c>
     </row>
     <row r="5" spans="1:77" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2">
+        <v>641907248</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1710005658419</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43647</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5" si="1">IF(LEFT(C5,2)="99","Organik",IF(LEFT(C5,2)="97","Tetap",IF(LEFT(C5,2)="75","Capeg",IF(LEFT(C5,2)="64","PKWT","Resign"))))</f>
+        <v>PKWT</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <v>45291</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>35816</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="1"/>
+      <c r="AF5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>19047644034</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -2286,25 +2350,59 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>2016</v>
+      </c>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
+      <c r="BG5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>32</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>41</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>44399</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>44427</v>
+      </c>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
       <c r="BN5" s="1"/>
@@ -2318,7 +2416,10 @@
       <c r="BV5" s="1"/>
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
+      <c r="BY5" s="1" t="e">
+        <f>VLOOKUP(B5,[1]Sertifikasi!$B$4:$I$19,8,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5">
